--- a/MATLAB/DischargeModel/data5_2.xlsx
+++ b/MATLAB/DischargeModel/data5_2.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A2" sqref="A2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
